--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/63_Ordu_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/63_Ordu_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACFC8A6-E5BD-4192-BF81-2F97E5E42314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9BD76ED-D150-4AE7-9692-B8FD2AE13B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{AE6464CD-DB26-4D16-8A75-F942A5921853}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="715" xr2:uid="{B54C0023-2BFA-4703-8D1D-97D618BBFE65}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -797,14 +797,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{5FAE1A57-1AF8-4810-A0BC-0F51A858C8E4}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3D4A4074-E450-42F7-A33A-9325003B32FE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{C24EE300-8A16-4582-904D-5844029C80ED}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{BB2FE802-9698-424A-BDAE-C7ECAC76A05B}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{796A5BC7-6204-4CA7-A065-813353DDD9D9}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CD600D01-FCCB-4138-82C4-BDF12878E18C}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{3656ADE0-0497-424B-B824-CB394DCD944B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1903C547-27F2-42B7-AA03-6D776A368930}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{864F087E-93C2-472F-8C55-23F71EAF6E62}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{FBC4EE75-A60E-4F9B-B861-D8544FE5C1C0}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{74F5F75C-7B3C-4AA1-9721-DE48723C4C07}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{67CFA2A5-1245-4A5F-8EA0-CC63C5616D52}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{347E9620-E94E-4D5E-8D83-2727727EFE92}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B2BBF940-5AE0-4CEE-95C6-8A14E348F061}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{0BD45E76-C0AD-4516-9629-5CC59B69F5A5}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{6D1A1B54-7A73-4B6B-A260-8B4F42F4FD93}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1174,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C50D1C-957B-4654-A14F-520AA636A585}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{284ACE05-A2C3-4C94-B7BD-438CD09B70E7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2461,7 +2461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047643A5-6D0F-4CEC-ABAE-35BD78B1118F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37CF7997-C637-4B01-B963-84506A205831}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3752,7 +3752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1050E8-E912-4301-8647-3F0E7D038E63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2606738-C5F9-4EFF-83AE-6A212B6ACD89}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5035,7 +5035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D72C3C7-07A2-4467-9D80-DCC435499B0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A02310-4659-4F93-A013-8204C1B5FCB7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6314,7 +6314,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A013A99C-4712-48FD-BA8D-DE0E21D5270D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D698CA66-1261-4928-A273-B1D59B385D4C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7589,7 +7589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56FAA634-3A76-499E-B945-8BB318F14B16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE98FC5-634F-4713-9E30-5ECD3F93A673}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
